--- a/Code/Resultados_Analisis/Ciudades/Philadelphia_PA/Philadelphia_PA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Philadelphia_PA/Philadelphia_PA_datos_procesados.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR2" t="n">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -992,12 +992,12 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR4" t="n">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR13" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR14" t="n">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR15" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="AX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR23" t="n">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="AX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR38" t="n">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW38" t="inlineStr">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="AX38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW41" t="inlineStr">
@@ -7310,12 +7310,12 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW42" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR43" t="n">
@@ -7472,12 +7472,12 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AX43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW46" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR49" t="n">
@@ -8444,12 +8444,12 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW49" t="inlineStr">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="AX49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR51" t="n">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="AX51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR54" t="n">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="AX54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR60" t="n">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="AX60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10550,12 +10550,12 @@
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR64" t="n">
@@ -10874,12 +10874,12 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW64" t="inlineStr">
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="AX64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -11522,12 +11522,12 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW68" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW69" t="inlineStr">
@@ -11846,12 +11846,12 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -12170,12 +12170,12 @@
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="AU73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -12656,12 +12656,12 @@
       </c>
       <c r="AU75" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13628,12 +13628,12 @@
       </c>
       <c r="AU81" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV81" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW81" t="inlineStr">
@@ -13952,12 +13952,12 @@
       </c>
       <c r="AU83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW83" t="inlineStr">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR84" t="n">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="AX84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="AU85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW85" t="inlineStr">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR88" t="n">
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="AX88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR91" t="n">
@@ -15248,12 +15248,12 @@
       </c>
       <c r="AU91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW91" t="inlineStr">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="AX91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR94" t="n">
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="AX94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -16382,12 +16382,12 @@
       </c>
       <c r="AU98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW98" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR100" t="n">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="AX100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR112" t="n">
@@ -18664,7 +18664,7 @@
         </is>
       </c>
       <c r="AX112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -18798,7 +18798,7 @@
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR113" t="n">
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="AX113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="AU114" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW114" t="inlineStr">
@@ -19136,12 +19136,12 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW115" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR116" t="n">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="AX116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR117" t="n">
@@ -19460,12 +19460,12 @@
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -19474,7 +19474,7 @@
         </is>
       </c>
       <c r="AX117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR118" t="n">
@@ -19622,12 +19622,12 @@
       </c>
       <c r="AU118" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV118" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW118" t="inlineStr">
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="AX118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -20094,7 +20094,7 @@
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR121" t="n">
@@ -20122,7 +20122,7 @@
         </is>
       </c>
       <c r="AX121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -20270,12 +20270,12 @@
       </c>
       <c r="AU122" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW122" t="inlineStr">
@@ -20432,12 +20432,12 @@
       </c>
       <c r="AU123" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV123" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW123" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="AU124" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV124" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW124" t="inlineStr">
@@ -20742,7 +20742,7 @@
       </c>
       <c r="AQ125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR125" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="AU125" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV125" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW125" t="inlineStr">
@@ -20770,7 +20770,7 @@
         </is>
       </c>
       <c r="AX125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -21080,12 +21080,12 @@
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
@@ -21242,12 +21242,12 @@
       </c>
       <c r="AU128" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV128" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW128" t="inlineStr">
@@ -21404,12 +21404,12 @@
       </c>
       <c r="AU129" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV129" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW129" t="inlineStr">
@@ -21566,12 +21566,12 @@
       </c>
       <c r="AU130" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV130" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW130" t="inlineStr">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR132" t="n">
@@ -21890,12 +21890,12 @@
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr">
@@ -21904,7 +21904,7 @@
         </is>
       </c>
       <c r="AX132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -22214,12 +22214,12 @@
       </c>
       <c r="AU134" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV134" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW134" t="inlineStr">
@@ -22524,7 +22524,7 @@
       </c>
       <c r="AQ136" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR136" t="n">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="AX136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR137" t="n">
@@ -22700,12 +22700,12 @@
       </c>
       <c r="AU137" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW137" t="inlineStr">
@@ -22714,7 +22714,7 @@
         </is>
       </c>
       <c r="AX137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -22862,12 +22862,12 @@
       </c>
       <c r="AU138" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV138" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW138" t="inlineStr">
@@ -23024,12 +23024,12 @@
       </c>
       <c r="AU139" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV139" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW139" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AQ140" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR140" t="n">
@@ -23186,12 +23186,12 @@
       </c>
       <c r="AU140" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV140" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW140" t="inlineStr">
@@ -23200,7 +23200,7 @@
         </is>
       </c>
       <c r="AX140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -23348,12 +23348,12 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
@@ -23510,12 +23510,12 @@
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -23658,7 +23658,7 @@
       </c>
       <c r="AQ143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR143" t="n">
@@ -23672,12 +23672,12 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
@@ -23686,7 +23686,7 @@
         </is>
       </c>
       <c r="AX143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="AQ144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR144" t="n">
@@ -23834,12 +23834,12 @@
       </c>
       <c r="AU144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW144" t="inlineStr">
@@ -23848,7 +23848,7 @@
         </is>
       </c>
       <c r="AX144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="AQ145" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR145" t="n">
@@ -23996,12 +23996,12 @@
       </c>
       <c r="AU145" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
@@ -24010,7 +24010,7 @@
         </is>
       </c>
       <c r="AX145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -24158,12 +24158,12 @@
       </c>
       <c r="AU146" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV146" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW146" t="inlineStr">
@@ -24306,7 +24306,7 @@
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR147" t="n">
@@ -24320,12 +24320,12 @@
       </c>
       <c r="AU147" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV147" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW147" t="inlineStr">
@@ -24334,7 +24334,7 @@
         </is>
       </c>
       <c r="AX147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -24482,12 +24482,12 @@
       </c>
       <c r="AU148" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV148" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW148" t="inlineStr">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="AQ149" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR149" t="n">
@@ -24644,12 +24644,12 @@
       </c>
       <c r="AU149" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV149" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW149" t="inlineStr">
@@ -24658,7 +24658,7 @@
         </is>
       </c>
       <c r="AX149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -24806,12 +24806,12 @@
       </c>
       <c r="AU150" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV150" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW150" t="inlineStr">
@@ -24954,7 +24954,7 @@
       </c>
       <c r="AQ151" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR151" t="n">
@@ -24968,12 +24968,12 @@
       </c>
       <c r="AU151" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV151" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW151" t="inlineStr">
@@ -24982,7 +24982,7 @@
         </is>
       </c>
       <c r="AX151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -25130,12 +25130,12 @@
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
@@ -25602,7 +25602,7 @@
       </c>
       <c r="AQ155" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR155" t="n">
@@ -25616,12 +25616,12 @@
       </c>
       <c r="AU155" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV155" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW155" t="inlineStr">
@@ -25630,7 +25630,7 @@
         </is>
       </c>
       <c r="AX155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -25940,12 +25940,12 @@
       </c>
       <c r="AU157" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV157" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW157" t="inlineStr">
@@ -26102,12 +26102,12 @@
       </c>
       <c r="AU158" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV158" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW158" t="inlineStr">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="AQ161" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR161" t="n">
@@ -26588,12 +26588,12 @@
       </c>
       <c r="AU161" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV161" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW161" t="inlineStr">
@@ -26602,7 +26602,7 @@
         </is>
       </c>
       <c r="AX161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -27236,12 +27236,12 @@
       </c>
       <c r="AU165" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV165" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW165" t="inlineStr">
@@ -27398,12 +27398,12 @@
       </c>
       <c r="AU166" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV166" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW166" t="inlineStr">
@@ -27708,7 +27708,7 @@
       </c>
       <c r="AQ168" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR168" t="n">
@@ -27722,12 +27722,12 @@
       </c>
       <c r="AU168" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV168" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW168" t="inlineStr">
@@ -27736,7 +27736,7 @@
         </is>
       </c>
       <c r="AX168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="AQ169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR169" t="n">
@@ -27898,7 +27898,7 @@
         </is>
       </c>
       <c r="AX169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR170" t="n">
@@ -28046,12 +28046,12 @@
       </c>
       <c r="AU170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW170" t="inlineStr">
@@ -28060,7 +28060,7 @@
         </is>
       </c>
       <c r="AX170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -29018,12 +29018,12 @@
       </c>
       <c r="AU176" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV176" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW176" t="inlineStr">
@@ -29490,7 +29490,7 @@
       </c>
       <c r="AQ179" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR179" t="n">
@@ -29518,7 +29518,7 @@
         </is>
       </c>
       <c r="AX179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR196" t="n">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="AX196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -32730,7 +32730,7 @@
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR199" t="n">
@@ -32744,12 +32744,12 @@
       </c>
       <c r="AU199" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV199" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW199" t="inlineStr">
@@ -32758,7 +32758,7 @@
         </is>
       </c>
       <c r="AX199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -33068,12 +33068,12 @@
       </c>
       <c r="AU201" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV201" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW201" t="inlineStr">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="AQ205" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR205" t="n">
@@ -33716,12 +33716,12 @@
       </c>
       <c r="AU205" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV205" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW205" t="inlineStr">
@@ -33730,7 +33730,7 @@
         </is>
       </c>
       <c r="AX205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -33878,12 +33878,12 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
@@ -34040,12 +34040,12 @@
       </c>
       <c r="AU207" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV207" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW207" t="inlineStr">
@@ -34202,12 +34202,12 @@
       </c>
       <c r="AU208" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV208" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW208" t="inlineStr">
@@ -34364,12 +34364,12 @@
       </c>
       <c r="AU209" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV209" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW209" t="inlineStr">
@@ -34674,7 +34674,7 @@
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR211" t="n">
@@ -34688,12 +34688,12 @@
       </c>
       <c r="AU211" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV211" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW211" t="inlineStr">
@@ -34702,7 +34702,7 @@
         </is>
       </c>
       <c r="AX211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -34998,7 +34998,7 @@
       </c>
       <c r="AQ213" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR213" t="n">
@@ -35012,12 +35012,12 @@
       </c>
       <c r="AU213" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV213" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW213" t="inlineStr">
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="AX213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -35174,12 +35174,12 @@
       </c>
       <c r="AU214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
@@ -35336,12 +35336,12 @@
       </c>
       <c r="AU215" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV215" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW215" t="inlineStr">
@@ -35660,12 +35660,12 @@
       </c>
       <c r="AU217" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV217" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW217" t="inlineStr">
@@ -35808,7 +35808,7 @@
       </c>
       <c r="AQ218" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR218" t="n">
@@ -35822,12 +35822,12 @@
       </c>
       <c r="AU218" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV218" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW218" t="inlineStr">
@@ -35836,7 +35836,7 @@
         </is>
       </c>
       <c r="AX218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -35970,7 +35970,7 @@
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR219" t="n">
@@ -35984,12 +35984,12 @@
       </c>
       <c r="AU219" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV219" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW219" t="inlineStr">
@@ -35998,7 +35998,7 @@
         </is>
       </c>
       <c r="AX219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -36146,12 +36146,12 @@
       </c>
       <c r="AU220" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV220" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW220" t="inlineStr">
@@ -36308,12 +36308,12 @@
       </c>
       <c r="AU221" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV221" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW221" t="inlineStr">
@@ -36470,12 +36470,12 @@
       </c>
       <c r="AU222" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV222" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW222" t="inlineStr">
@@ -36632,12 +36632,12 @@
       </c>
       <c r="AU223" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV223" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW223" t="inlineStr">
@@ -36794,12 +36794,12 @@
       </c>
       <c r="AU224" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV224" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW224" t="inlineStr">
@@ -36956,12 +36956,12 @@
       </c>
       <c r="AU225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW225" t="inlineStr">
@@ -37104,7 +37104,7 @@
       </c>
       <c r="AQ226" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR226" t="n">
@@ -37118,12 +37118,12 @@
       </c>
       <c r="AU226" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV226" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW226" t="inlineStr">
@@ -37132,7 +37132,7 @@
         </is>
       </c>
       <c r="AX226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -37280,12 +37280,12 @@
       </c>
       <c r="AU227" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV227" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW227" t="inlineStr">
@@ -37590,7 +37590,7 @@
       </c>
       <c r="AQ229" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR229" t="n">
@@ -37618,7 +37618,7 @@
         </is>
       </c>
       <c r="AX229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -38076,7 +38076,7 @@
       </c>
       <c r="AQ232" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR232" t="n">
@@ -38090,12 +38090,12 @@
       </c>
       <c r="AU232" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV232" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW232" t="inlineStr">
@@ -38104,7 +38104,7 @@
         </is>
       </c>
       <c r="AX232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -38238,7 +38238,7 @@
       </c>
       <c r="AQ233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR233" t="n">
@@ -38252,12 +38252,12 @@
       </c>
       <c r="AU233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW233" t="inlineStr">
@@ -38266,7 +38266,7 @@
         </is>
       </c>
       <c r="AX233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -38414,12 +38414,12 @@
       </c>
       <c r="AU234" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV234" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW234" t="inlineStr">
@@ -38576,12 +38576,12 @@
       </c>
       <c r="AU235" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV235" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW235" t="inlineStr">
@@ -38738,12 +38738,12 @@
       </c>
       <c r="AU236" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV236" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW236" t="inlineStr">
@@ -39062,12 +39062,12 @@
       </c>
       <c r="AU238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW238" t="inlineStr">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="AQ240" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR240" t="n">
@@ -39400,7 +39400,7 @@
         </is>
       </c>
       <c r="AX240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -39548,12 +39548,12 @@
       </c>
       <c r="AU241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW241" t="inlineStr">
@@ -40196,12 +40196,12 @@
       </c>
       <c r="AU245" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV245" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW245" t="inlineStr">
@@ -40344,7 +40344,7 @@
       </c>
       <c r="AQ246" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR246" t="n">
@@ -40358,12 +40358,12 @@
       </c>
       <c r="AU246" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV246" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW246" t="inlineStr">
@@ -40372,7 +40372,7 @@
         </is>
       </c>
       <c r="AX246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -40682,12 +40682,12 @@
       </c>
       <c r="AU248" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV248" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW248" t="inlineStr">
@@ -41478,7 +41478,7 @@
       </c>
       <c r="AQ253" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR253" t="n">
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="AX253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -41640,7 +41640,7 @@
       </c>
       <c r="AQ254" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR254" t="n">
@@ -41668,7 +41668,7 @@
         </is>
       </c>
       <c r="AX254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -41964,7 +41964,7 @@
       </c>
       <c r="AQ256" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR256" t="n">
@@ -41992,7 +41992,7 @@
         </is>
       </c>
       <c r="AX256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -42288,7 +42288,7 @@
       </c>
       <c r="AQ258" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR258" t="n">
@@ -42316,7 +42316,7 @@
         </is>
       </c>
       <c r="AX258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -42774,7 +42774,7 @@
       </c>
       <c r="AQ261" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR261" t="n">
@@ -42788,12 +42788,12 @@
       </c>
       <c r="AU261" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV261" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW261" t="inlineStr">
@@ -42802,7 +42802,7 @@
         </is>
       </c>
       <c r="AX261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -43098,7 +43098,7 @@
       </c>
       <c r="AQ263" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR263" t="n">
@@ -43112,12 +43112,12 @@
       </c>
       <c r="AU263" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV263" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW263" t="inlineStr">
@@ -43126,7 +43126,7 @@
         </is>
       </c>
       <c r="AX263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -44408,12 +44408,12 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV271" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW271" t="inlineStr">
@@ -44556,7 +44556,7 @@
       </c>
       <c r="AQ272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR272" t="n">
@@ -44570,12 +44570,12 @@
       </c>
       <c r="AU272" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV272" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW272" t="inlineStr">
@@ -44584,7 +44584,7 @@
         </is>
       </c>
       <c r="AX272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -44880,7 +44880,7 @@
       </c>
       <c r="AQ274" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR274" t="n">
@@ -44894,12 +44894,12 @@
       </c>
       <c r="AU274" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV274" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW274" t="inlineStr">
@@ -44908,7 +44908,7 @@
         </is>
       </c>
       <c r="AX274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -45042,7 +45042,7 @@
       </c>
       <c r="AQ275" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR275" t="n">
@@ -45070,7 +45070,7 @@
         </is>
       </c>
       <c r="AX275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -45542,12 +45542,12 @@
       </c>
       <c r="AU278" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV278" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW278" t="inlineStr">
@@ -45704,12 +45704,12 @@
       </c>
       <c r="AU279" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV279" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW279" t="inlineStr">
@@ -45866,12 +45866,12 @@
       </c>
       <c r="AU280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW280" t="inlineStr">
@@ -46514,12 +46514,12 @@
       </c>
       <c r="AU284" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV284" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW284" t="inlineStr">
@@ -46676,12 +46676,12 @@
       </c>
       <c r="AU285" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV285" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW285" t="inlineStr">
@@ -47000,12 +47000,12 @@
       </c>
       <c r="AU287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW287" t="inlineStr">
@@ -47162,12 +47162,12 @@
       </c>
       <c r="AU288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW288" t="inlineStr">
@@ -47472,7 +47472,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR290" t="n">
@@ -47486,12 +47486,12 @@
       </c>
       <c r="AU290" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV290" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW290" t="inlineStr">
@@ -47500,7 +47500,7 @@
         </is>
       </c>
       <c r="AX290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -47648,12 +47648,12 @@
       </c>
       <c r="AU291" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV291" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW291" t="inlineStr">
@@ -47796,7 +47796,7 @@
       </c>
       <c r="AQ292" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR292" t="n">
@@ -47810,12 +47810,12 @@
       </c>
       <c r="AU292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW292" t="inlineStr">
@@ -47824,7 +47824,7 @@
         </is>
       </c>
       <c r="AX292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -47972,12 +47972,12 @@
       </c>
       <c r="AU293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW293" t="inlineStr">
@@ -48120,7 +48120,7 @@
       </c>
       <c r="AQ294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR294" t="n">
@@ -48134,12 +48134,12 @@
       </c>
       <c r="AU294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW294" t="inlineStr">
@@ -48148,7 +48148,7 @@
         </is>
       </c>
       <c r="AX294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -48282,7 +48282,7 @@
       </c>
       <c r="AQ295" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR295" t="n">
@@ -48296,12 +48296,12 @@
       </c>
       <c r="AU295" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV295" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW295" t="inlineStr">
@@ -48310,7 +48310,7 @@
         </is>
       </c>
       <c r="AX295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -48444,7 +48444,7 @@
       </c>
       <c r="AQ296" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR296" t="n">
@@ -48458,12 +48458,12 @@
       </c>
       <c r="AU296" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV296" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW296" t="inlineStr">
@@ -48472,7 +48472,7 @@
         </is>
       </c>
       <c r="AX296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -48620,12 +48620,12 @@
       </c>
       <c r="AU297" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV297" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW297" t="inlineStr">
@@ -48768,7 +48768,7 @@
       </c>
       <c r="AQ298" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR298" t="n">
@@ -48782,12 +48782,12 @@
       </c>
       <c r="AU298" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV298" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW298" t="inlineStr">
@@ -48796,7 +48796,7 @@
         </is>
       </c>
       <c r="AX298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -48944,12 +48944,12 @@
       </c>
       <c r="AU299" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV299" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW299" t="inlineStr">
@@ -49106,12 +49106,12 @@
       </c>
       <c r="AU300" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV300" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW300" t="inlineStr">
@@ -49254,7 +49254,7 @@
       </c>
       <c r="AQ301" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR301" t="n">
@@ -49268,12 +49268,12 @@
       </c>
       <c r="AU301" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV301" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW301" t="inlineStr">
@@ -49282,7 +49282,7 @@
         </is>
       </c>
       <c r="AX301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -49430,12 +49430,12 @@
       </c>
       <c r="AU302" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV302" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW302" t="inlineStr">
@@ -49578,7 +49578,7 @@
       </c>
       <c r="AQ303" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR303" t="n">
@@ -49592,12 +49592,12 @@
       </c>
       <c r="AU303" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV303" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW303" t="inlineStr">
@@ -49606,7 +49606,7 @@
         </is>
       </c>
       <c r="AX303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -49754,12 +49754,12 @@
       </c>
       <c r="AU304" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV304" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW304" t="inlineStr">
@@ -49916,12 +49916,12 @@
       </c>
       <c r="AU305" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV305" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW305" t="inlineStr">
@@ -50078,12 +50078,12 @@
       </c>
       <c r="AU306" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV306" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW306" t="inlineStr">
@@ -50550,7 +50550,7 @@
       </c>
       <c r="AQ309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR309" t="n">
@@ -50564,12 +50564,12 @@
       </c>
       <c r="AU309" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV309" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW309" t="inlineStr">
@@ -50578,7 +50578,7 @@
         </is>
       </c>
       <c r="AX309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -51536,12 +51536,12 @@
       </c>
       <c r="AU315" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV315" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW315" t="inlineStr">
@@ -51698,12 +51698,12 @@
       </c>
       <c r="AU316" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV316" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW316" t="inlineStr">
@@ -53304,7 +53304,7 @@
       </c>
       <c r="AQ326" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR326" t="n">
@@ -53318,12 +53318,12 @@
       </c>
       <c r="AU326" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV326" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW326" t="inlineStr">
@@ -53332,7 +53332,7 @@
         </is>
       </c>
       <c r="AX326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -53480,12 +53480,12 @@
       </c>
       <c r="AU327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW327" t="inlineStr">
@@ -53642,12 +53642,12 @@
       </c>
       <c r="AU328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW328" t="inlineStr">
@@ -53804,12 +53804,12 @@
       </c>
       <c r="AU329" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV329" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW329" t="inlineStr">
@@ -54114,7 +54114,7 @@
       </c>
       <c r="AQ331" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR331" t="n">
@@ -54128,12 +54128,12 @@
       </c>
       <c r="AU331" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV331" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW331" t="inlineStr">
@@ -54142,7 +54142,7 @@
         </is>
       </c>
       <c r="AX331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -54614,12 +54614,12 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV334" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW334" t="inlineStr">
@@ -56072,12 +56072,12 @@
       </c>
       <c r="AU343" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV343" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW343" t="inlineStr">
@@ -56220,7 +56220,7 @@
       </c>
       <c r="AQ344" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR344" t="n">
@@ -56248,7 +56248,7 @@
         </is>
       </c>
       <c r="AX344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -56544,7 +56544,7 @@
       </c>
       <c r="AQ346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR346" t="n">
@@ -56572,7 +56572,7 @@
         </is>
       </c>
       <c r="AX346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -56882,12 +56882,12 @@
       </c>
       <c r="AU348" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV348" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW348" t="inlineStr">
@@ -57516,7 +57516,7 @@
       </c>
       <c r="AQ352" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR352" t="n">
@@ -57530,12 +57530,12 @@
       </c>
       <c r="AU352" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV352" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW352" t="inlineStr">
@@ -57544,7 +57544,7 @@
         </is>
       </c>
       <c r="AX352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -58812,7 +58812,7 @@
       </c>
       <c r="AQ360" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR360" t="n">
@@ -58826,12 +58826,12 @@
       </c>
       <c r="AU360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW360" t="inlineStr">
@@ -58840,7 +58840,7 @@
         </is>
       </c>
       <c r="AX360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -58974,7 +58974,7 @@
       </c>
       <c r="AQ361" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR361" t="n">
@@ -58988,12 +58988,12 @@
       </c>
       <c r="AU361" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV361" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW361" t="inlineStr">
@@ -59002,7 +59002,7 @@
         </is>
       </c>
       <c r="AX361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -59312,12 +59312,12 @@
       </c>
       <c r="AU363" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV363" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW363" t="inlineStr">
@@ -59622,7 +59622,7 @@
       </c>
       <c r="AQ365" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR365" t="n">
@@ -59636,12 +59636,12 @@
       </c>
       <c r="AU365" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV365" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW365" t="inlineStr">
@@ -59650,7 +59650,7 @@
         </is>
       </c>
       <c r="AX365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -59798,12 +59798,12 @@
       </c>
       <c r="AU366" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV366" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW366" t="inlineStr">
@@ -59946,7 +59946,7 @@
       </c>
       <c r="AQ367" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR367" t="n">
@@ -59960,12 +59960,12 @@
       </c>
       <c r="AU367" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV367" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW367" t="inlineStr">
@@ -59974,7 +59974,7 @@
         </is>
       </c>
       <c r="AX367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -60122,12 +60122,12 @@
       </c>
       <c r="AU368" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV368" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW368" t="inlineStr">
@@ -60284,12 +60284,12 @@
       </c>
       <c r="AU369" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV369" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW369" t="inlineStr">
@@ -60432,7 +60432,7 @@
       </c>
       <c r="AQ370" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR370" t="n">
@@ -60446,12 +60446,12 @@
       </c>
       <c r="AU370" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV370" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW370" t="inlineStr">
@@ -60460,7 +60460,7 @@
         </is>
       </c>
       <c r="AX370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -60932,12 +60932,12 @@
       </c>
       <c r="AU373" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV373" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW373" t="inlineStr">
@@ -61404,7 +61404,7 @@
       </c>
       <c r="AQ376" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR376" t="n">
@@ -61432,7 +61432,7 @@
         </is>
       </c>
       <c r="AX376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -61742,12 +61742,12 @@
       </c>
       <c r="AU378" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV378" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW378" t="inlineStr">
@@ -62214,7 +62214,7 @@
       </c>
       <c r="AQ381" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR381" t="n">
@@ -62228,12 +62228,12 @@
       </c>
       <c r="AU381" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV381" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW381" t="inlineStr">
@@ -62242,7 +62242,7 @@
         </is>
       </c>
       <c r="AX381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -62376,7 +62376,7 @@
       </c>
       <c r="AQ382" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR382" t="n">
@@ -62390,12 +62390,12 @@
       </c>
       <c r="AU382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW382" t="inlineStr">
@@ -62404,7 +62404,7 @@
         </is>
       </c>
       <c r="AX382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -62552,12 +62552,12 @@
       </c>
       <c r="AU383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW383" t="inlineStr">
@@ -62700,7 +62700,7 @@
       </c>
       <c r="AQ384" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR384" t="n">
@@ -62714,12 +62714,12 @@
       </c>
       <c r="AU384" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV384" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW384" t="inlineStr">
@@ -62728,7 +62728,7 @@
         </is>
       </c>
       <c r="AX384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -62862,7 +62862,7 @@
       </c>
       <c r="AQ385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR385" t="n">
@@ -62876,12 +62876,12 @@
       </c>
       <c r="AU385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW385" t="inlineStr">
@@ -62890,7 +62890,7 @@
         </is>
       </c>
       <c r="AX385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -63024,7 +63024,7 @@
       </c>
       <c r="AQ386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR386" t="n">
@@ -63038,12 +63038,12 @@
       </c>
       <c r="AU386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW386" t="inlineStr">
@@ -63052,7 +63052,7 @@
         </is>
       </c>
       <c r="AX386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -63186,7 +63186,7 @@
       </c>
       <c r="AQ387" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR387" t="n">
@@ -63200,12 +63200,12 @@
       </c>
       <c r="AU387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW387" t="inlineStr">
@@ -63214,7 +63214,7 @@
         </is>
       </c>
       <c r="AX387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -63510,7 +63510,7 @@
       </c>
       <c r="AQ389" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR389" t="n">
@@ -63538,7 +63538,7 @@
         </is>
       </c>
       <c r="AX389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -63686,12 +63686,12 @@
       </c>
       <c r="AU390" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV390" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW390" t="inlineStr">
@@ -63848,12 +63848,12 @@
       </c>
       <c r="AU391" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV391" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW391" t="inlineStr">
@@ -64482,7 +64482,7 @@
       </c>
       <c r="AQ395" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR395" t="n">
@@ -64496,12 +64496,12 @@
       </c>
       <c r="AU395" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV395" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW395" t="inlineStr">
@@ -64510,7 +64510,7 @@
         </is>
       </c>
       <c r="AX395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -64658,12 +64658,12 @@
       </c>
       <c r="AU396" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV396" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW396" t="inlineStr">
@@ -64820,12 +64820,12 @@
       </c>
       <c r="AU397" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV397" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW397" t="inlineStr">
@@ -65144,12 +65144,12 @@
       </c>
       <c r="AU399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW399" t="inlineStr">
@@ -65778,7 +65778,7 @@
       </c>
       <c r="AQ403" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR403" t="n">
@@ -65792,12 +65792,12 @@
       </c>
       <c r="AU403" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV403" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW403" t="inlineStr">
@@ -65806,7 +65806,7 @@
         </is>
       </c>
       <c r="AX403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -66116,12 +66116,12 @@
       </c>
       <c r="AU405" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV405" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW405" t="inlineStr">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="AQ406" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR406" t="n">
@@ -66278,12 +66278,12 @@
       </c>
       <c r="AU406" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV406" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW406" t="inlineStr">
@@ -66292,7 +66292,7 @@
         </is>
       </c>
       <c r="AX406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -66440,12 +66440,12 @@
       </c>
       <c r="AU407" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV407" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW407" t="inlineStr">
@@ -66764,12 +66764,12 @@
       </c>
       <c r="AU409" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV409" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW409" t="inlineStr">
@@ -66926,12 +66926,12 @@
       </c>
       <c r="AU410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW410" t="inlineStr">
@@ -67574,12 +67574,12 @@
       </c>
       <c r="AU414" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV414" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW414" t="inlineStr">
@@ -68222,12 +68222,12 @@
       </c>
       <c r="AU418" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV418" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW418" t="inlineStr">
@@ -68694,7 +68694,7 @@
       </c>
       <c r="AQ421" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR421" t="n">
@@ -68722,7 +68722,7 @@
         </is>
       </c>
       <c r="AX421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -69018,7 +69018,7 @@
       </c>
       <c r="AQ423" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR423" t="n">
@@ -69046,7 +69046,7 @@
         </is>
       </c>
       <c r="AX423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -69504,7 +69504,7 @@
       </c>
       <c r="AQ426" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR426" t="n">
@@ -69518,12 +69518,12 @@
       </c>
       <c r="AU426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW426" t="inlineStr">
@@ -69532,7 +69532,7 @@
         </is>
       </c>
       <c r="AX426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -69828,7 +69828,7 @@
       </c>
       <c r="AQ428" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR428" t="n">
@@ -69856,7 +69856,7 @@
         </is>
       </c>
       <c r="AX428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -70476,7 +70476,7 @@
       </c>
       <c r="AQ432" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR432" t="n">
@@ -70490,12 +70490,12 @@
       </c>
       <c r="AU432" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV432" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW432" t="inlineStr">
@@ -70504,7 +70504,7 @@
         </is>
       </c>
       <c r="AX432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -70652,12 +70652,12 @@
       </c>
       <c r="AU433" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV433" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW433" t="inlineStr">
@@ -70814,12 +70814,12 @@
       </c>
       <c r="AU434" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV434" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW434" t="inlineStr">
@@ -70962,7 +70962,7 @@
       </c>
       <c r="AQ435" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR435" t="n">
@@ -70976,12 +70976,12 @@
       </c>
       <c r="AU435" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV435" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW435" t="inlineStr">
@@ -70990,7 +70990,7 @@
         </is>
       </c>
       <c r="AX435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -71624,12 +71624,12 @@
       </c>
       <c r="AU439" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV439" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW439" t="inlineStr">
@@ -71786,12 +71786,12 @@
       </c>
       <c r="AU440" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV440" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW440" t="inlineStr">
@@ -72110,12 +72110,12 @@
       </c>
       <c r="AU442" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV442" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW442" t="inlineStr">
@@ -72272,12 +72272,12 @@
       </c>
       <c r="AU443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW443" t="inlineStr">
@@ -72434,12 +72434,12 @@
       </c>
       <c r="AU444" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV444" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW444" t="inlineStr">
@@ -72596,12 +72596,12 @@
       </c>
       <c r="AU445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW445" t="inlineStr">
@@ -72758,12 +72758,12 @@
       </c>
       <c r="AU446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW446" t="inlineStr">
@@ -72906,7 +72906,7 @@
       </c>
       <c r="AQ447" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR447" t="n">
@@ -72920,12 +72920,12 @@
       </c>
       <c r="AU447" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV447" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW447" t="inlineStr">
@@ -72934,7 +72934,7 @@
         </is>
       </c>
       <c r="AX447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -73230,7 +73230,7 @@
       </c>
       <c r="AQ449" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR449" t="n">
@@ -73244,12 +73244,12 @@
       </c>
       <c r="AU449" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV449" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW449" t="inlineStr">
@@ -73258,7 +73258,7 @@
         </is>
       </c>
       <c r="AX449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -73406,12 +73406,12 @@
       </c>
       <c r="AU450" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV450" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW450" t="inlineStr">
@@ -73892,12 +73892,12 @@
       </c>
       <c r="AU453" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV453" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW453" t="inlineStr">
@@ -74054,12 +74054,12 @@
       </c>
       <c r="AU454" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV454" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW454" t="inlineStr">
@@ -74216,12 +74216,12 @@
       </c>
       <c r="AU455" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV455" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW455" t="inlineStr">
@@ -74378,12 +74378,12 @@
       </c>
       <c r="AU456" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV456" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW456" t="inlineStr">
@@ -75512,12 +75512,12 @@
       </c>
       <c r="AU463" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV463" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW463" t="inlineStr">
@@ -75660,7 +75660,7 @@
       </c>
       <c r="AQ464" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR464" t="n">
@@ -75674,12 +75674,12 @@
       </c>
       <c r="AU464" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV464" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW464" t="inlineStr">
@@ -75688,7 +75688,7 @@
         </is>
       </c>
       <c r="AX464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -75836,12 +75836,12 @@
       </c>
       <c r="AU465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW465" t="inlineStr">
@@ -75998,12 +75998,12 @@
       </c>
       <c r="AU466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW466" t="inlineStr">
@@ -76160,12 +76160,12 @@
       </c>
       <c r="AU467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW467" t="inlineStr">
@@ -76322,12 +76322,12 @@
       </c>
       <c r="AU468" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV468" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW468" t="inlineStr">
@@ -76484,12 +76484,12 @@
       </c>
       <c r="AU469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW469" t="inlineStr">
@@ -76632,7 +76632,7 @@
       </c>
       <c r="AQ470" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR470" t="n">
@@ -76660,7 +76660,7 @@
         </is>
       </c>
       <c r="AX470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -76970,12 +76970,12 @@
       </c>
       <c r="AU472" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV472" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW472" t="inlineStr">
@@ -77132,12 +77132,12 @@
       </c>
       <c r="AU473" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV473" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW473" t="inlineStr">
@@ -77294,12 +77294,12 @@
       </c>
       <c r="AU474" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV474" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW474" t="inlineStr">
@@ -77442,7 +77442,7 @@
       </c>
       <c r="AQ475" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR475" t="n">
@@ -77456,12 +77456,12 @@
       </c>
       <c r="AU475" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV475" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW475" t="inlineStr">
@@ -77470,7 +77470,7 @@
         </is>
       </c>
       <c r="AX475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -77604,7 +77604,7 @@
       </c>
       <c r="AQ476" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR476" t="n">
@@ -77618,12 +77618,12 @@
       </c>
       <c r="AU476" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV476" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW476" t="inlineStr">
@@ -77632,7 +77632,7 @@
         </is>
       </c>
       <c r="AX476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -77780,12 +77780,12 @@
       </c>
       <c r="AU477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW477" t="inlineStr">
@@ -77942,12 +77942,12 @@
       </c>
       <c r="AU478" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV478" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW478" t="inlineStr">
@@ -78104,12 +78104,12 @@
       </c>
       <c r="AU479" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV479" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW479" t="inlineStr">
@@ -79076,12 +79076,12 @@
       </c>
       <c r="AU485" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV485" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW485" t="inlineStr">
@@ -79238,12 +79238,12 @@
       </c>
       <c r="AU486" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV486" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW486" t="inlineStr">
@@ -79724,12 +79724,12 @@
       </c>
       <c r="AU489" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV489" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW489" t="inlineStr">
@@ -80210,12 +80210,12 @@
       </c>
       <c r="AU492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW492" t="inlineStr">
@@ -80520,7 +80520,7 @@
       </c>
       <c r="AQ494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR494" t="n">
@@ -80534,12 +80534,12 @@
       </c>
       <c r="AU494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW494" t="inlineStr">
@@ -80548,7 +80548,7 @@
         </is>
       </c>
       <c r="AX494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -81978,7 +81978,7 @@
       </c>
       <c r="AQ503" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR503" t="n">
@@ -82006,7 +82006,7 @@
         </is>
       </c>
       <c r="AX503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -82464,7 +82464,7 @@
       </c>
       <c r="AQ506" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR506" t="n">
@@ -82478,12 +82478,12 @@
       </c>
       <c r="AU506" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV506" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW506" t="inlineStr">
@@ -82492,7 +82492,7 @@
         </is>
       </c>
       <c r="AX506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -82964,12 +82964,12 @@
       </c>
       <c r="AU509" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV509" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW509" t="inlineStr">
@@ -83436,7 +83436,7 @@
       </c>
       <c r="AQ512" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR512" t="n">
@@ -83464,7 +83464,7 @@
         </is>
       </c>
       <c r="AX512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -84084,7 +84084,7 @@
       </c>
       <c r="AQ516" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR516" t="n">
@@ -84098,12 +84098,12 @@
       </c>
       <c r="AU516" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV516" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW516" t="inlineStr">
@@ -84112,7 +84112,7 @@
         </is>
       </c>
       <c r="AX516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -84584,12 +84584,12 @@
       </c>
       <c r="AU519" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV519" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW519" t="inlineStr">
@@ -84746,12 +84746,12 @@
       </c>
       <c r="AU520" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV520" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW520" t="inlineStr">
@@ -84908,12 +84908,12 @@
       </c>
       <c r="AU521" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV521" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW521" t="inlineStr">
@@ -85070,12 +85070,12 @@
       </c>
       <c r="AU522" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV522" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW522" t="inlineStr">
@@ -85232,12 +85232,12 @@
       </c>
       <c r="AU523" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV523" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW523" t="inlineStr">
@@ -85394,12 +85394,12 @@
       </c>
       <c r="AU524" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV524" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW524" t="inlineStr">
@@ -86204,12 +86204,12 @@
       </c>
       <c r="AU529" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV529" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW529" t="inlineStr">
@@ -87500,12 +87500,12 @@
       </c>
       <c r="AU537" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV537" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW537" t="inlineStr">
@@ -87662,12 +87662,12 @@
       </c>
       <c r="AU538" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV538" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW538" t="inlineStr">
@@ -87824,12 +87824,12 @@
       </c>
       <c r="AU539" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV539" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW539" t="inlineStr">
@@ -88148,12 +88148,12 @@
       </c>
       <c r="AU541" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV541" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW541" t="inlineStr">
@@ -88310,12 +88310,12 @@
       </c>
       <c r="AU542" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV542" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW542" t="inlineStr">
@@ -88458,7 +88458,7 @@
       </c>
       <c r="AQ543" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR543" t="n">
@@ -88472,12 +88472,12 @@
       </c>
       <c r="AU543" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV543" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW543" t="inlineStr">
@@ -88486,7 +88486,7 @@
         </is>
       </c>
       <c r="AX543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -88782,7 +88782,7 @@
       </c>
       <c r="AQ545" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR545" t="n">
@@ -88796,12 +88796,12 @@
       </c>
       <c r="AU545" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV545" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW545" t="inlineStr">
@@ -88810,7 +88810,7 @@
         </is>
       </c>
       <c r="AX545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -89120,12 +89120,12 @@
       </c>
       <c r="AU547" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV547" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW547" t="inlineStr">
@@ -89282,12 +89282,12 @@
       </c>
       <c r="AU548" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV548" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW548" t="inlineStr">
@@ -89606,12 +89606,12 @@
       </c>
       <c r="AU550" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV550" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW550" t="inlineStr">
@@ -89754,7 +89754,7 @@
       </c>
       <c r="AQ551" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR551" t="n">
@@ -89768,12 +89768,12 @@
       </c>
       <c r="AU551" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV551" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW551" t="inlineStr">
@@ -89782,7 +89782,7 @@
         </is>
       </c>
       <c r="AX551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -90564,7 +90564,7 @@
       </c>
       <c r="AQ556" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR556" t="n">
@@ -90578,12 +90578,12 @@
       </c>
       <c r="AU556" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV556" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW556" t="inlineStr">
@@ -90592,7 +90592,7 @@
         </is>
       </c>
       <c r="AX556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -90740,12 +90740,12 @@
       </c>
       <c r="AU557" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV557" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW557" t="inlineStr">
@@ -90902,12 +90902,12 @@
       </c>
       <c r="AU558" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV558" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW558" t="inlineStr">
@@ -91226,12 +91226,12 @@
       </c>
       <c r="AU560" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV560" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW560" t="inlineStr">
@@ -91536,7 +91536,7 @@
       </c>
       <c r="AQ562" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR562" t="n">
@@ -91550,12 +91550,12 @@
       </c>
       <c r="AU562" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV562" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW562" t="inlineStr">
@@ -91564,7 +91564,7 @@
         </is>
       </c>
       <c r="AX562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -92036,12 +92036,12 @@
       </c>
       <c r="AU565" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV565" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW565" t="inlineStr">
@@ -94290,7 +94290,7 @@
       </c>
       <c r="AQ579" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR579" t="n">
@@ -94304,12 +94304,12 @@
       </c>
       <c r="AU579" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV579" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW579" t="inlineStr">
@@ -94318,7 +94318,7 @@
         </is>
       </c>
       <c r="AX579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -94466,12 +94466,12 @@
       </c>
       <c r="AU580" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV580" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW580" t="inlineStr">
@@ -94776,7 +94776,7 @@
       </c>
       <c r="AQ582" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR582" t="n">
@@ -94790,12 +94790,12 @@
       </c>
       <c r="AU582" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV582" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW582" t="inlineStr">
@@ -94804,7 +94804,7 @@
         </is>
       </c>
       <c r="AX582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -95114,12 +95114,12 @@
       </c>
       <c r="AU584" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV584" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW584" t="inlineStr">
@@ -95438,12 +95438,12 @@
       </c>
       <c r="AU586" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV586" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW586" t="inlineStr">
@@ -95586,7 +95586,7 @@
       </c>
       <c r="AQ587" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR587" t="n">
@@ -95614,7 +95614,7 @@
         </is>
       </c>
       <c r="AX587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -96734,12 +96734,12 @@
       </c>
       <c r="AU594" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV594" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW594" t="inlineStr">
@@ -96882,7 +96882,7 @@
       </c>
       <c r="AQ595" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR595" t="n">
@@ -96896,12 +96896,12 @@
       </c>
       <c r="AU595" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV595" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW595" t="inlineStr">
@@ -96910,7 +96910,7 @@
         </is>
       </c>
       <c r="AX595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -97220,12 +97220,12 @@
       </c>
       <c r="AU597" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV597" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW597" t="inlineStr">
@@ -97368,7 +97368,7 @@
       </c>
       <c r="AQ598" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR598" t="n">
@@ -97382,12 +97382,12 @@
       </c>
       <c r="AU598" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV598" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW598" t="inlineStr">
@@ -97396,7 +97396,7 @@
         </is>
       </c>
       <c r="AX598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -97706,12 +97706,12 @@
       </c>
       <c r="AU600" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV600" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW600" t="inlineStr">
@@ -97868,12 +97868,12 @@
       </c>
       <c r="AU601" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV601" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW601" t="inlineStr">
@@ -98354,12 +98354,12 @@
       </c>
       <c r="AU604" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV604" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW604" t="inlineStr">
@@ -98516,12 +98516,12 @@
       </c>
       <c r="AU605" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV605" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW605" t="inlineStr">
@@ -98678,12 +98678,12 @@
       </c>
       <c r="AU606" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV606" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW606" t="inlineStr">
@@ -99312,7 +99312,7 @@
       </c>
       <c r="AQ610" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR610" t="n">
@@ -99326,12 +99326,12 @@
       </c>
       <c r="AU610" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV610" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW610" t="inlineStr">
@@ -99340,7 +99340,7 @@
         </is>
       </c>
       <c r="AX610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -99812,12 +99812,12 @@
       </c>
       <c r="AU613" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV613" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW613" t="inlineStr">
@@ -99960,7 +99960,7 @@
       </c>
       <c r="AQ614" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR614" t="n">
@@ -99974,12 +99974,12 @@
       </c>
       <c r="AU614" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV614" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW614" t="inlineStr">
@@ -99988,7 +99988,7 @@
         </is>
       </c>
       <c r="AX614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -100122,7 +100122,7 @@
       </c>
       <c r="AQ615" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR615" t="n">
@@ -100136,12 +100136,12 @@
       </c>
       <c r="AU615" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV615" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW615" t="inlineStr">
@@ -100150,7 +100150,7 @@
         </is>
       </c>
       <c r="AX615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -100298,12 +100298,12 @@
       </c>
       <c r="AU616" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV616" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW616" t="inlineStr">
@@ -100460,12 +100460,12 @@
       </c>
       <c r="AU617" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV617" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW617" t="inlineStr">
@@ -100622,12 +100622,12 @@
       </c>
       <c r="AU618" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV618" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW618" t="inlineStr">
@@ -100784,12 +100784,12 @@
       </c>
       <c r="AU619" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV619" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW619" t="inlineStr">
@@ -101094,7 +101094,7 @@
       </c>
       <c r="AQ621" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR621" t="n">
@@ -101108,12 +101108,12 @@
       </c>
       <c r="AU621" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV621" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW621" t="inlineStr">
@@ -101122,7 +101122,7 @@
         </is>
       </c>
       <c r="AX621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -101432,12 +101432,12 @@
       </c>
       <c r="AU623" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV623" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW623" t="inlineStr">
@@ -101594,12 +101594,12 @@
       </c>
       <c r="AU624" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV624" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW624" t="inlineStr">
@@ -101756,12 +101756,12 @@
       </c>
       <c r="AU625" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV625" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW625" t="inlineStr">
@@ -101904,7 +101904,7 @@
       </c>
       <c r="AQ626" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR626" t="n">
@@ -101918,12 +101918,12 @@
       </c>
       <c r="AU626" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV626" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW626" t="inlineStr">
@@ -101932,7 +101932,7 @@
         </is>
       </c>
       <c r="AX626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -102080,12 +102080,12 @@
       </c>
       <c r="AU627" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV627" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW627" t="inlineStr">
@@ -102228,7 +102228,7 @@
       </c>
       <c r="AQ628" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR628" t="n">
@@ -102242,12 +102242,12 @@
       </c>
       <c r="AU628" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV628" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW628" t="inlineStr">
@@ -102256,7 +102256,7 @@
         </is>
       </c>
       <c r="AX628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
